--- a/notebooks/SLC4A1/input/slc4a1_rta_individuals.xlsx
+++ b/notebooks/SLC4A1/input/slc4a1_rta_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SLC4A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99FE189-77AD-EB48-BFB7-61CC82C57E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8874207-381D-4649-992D-D8C008A89D4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{C10D3C5E-FAA1-FE46-A577-6E2BAE5CCDF4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20560" xr2:uid="{C10D3C5E-FAA1-FE46-A577-6E2BAE5CCDF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="116">
   <si>
     <t>PMID</t>
   </si>
@@ -378,6 +378,12 @@
   </si>
   <si>
     <t>NM_000342.4</t>
+  </si>
+  <si>
+    <t>Failure to thrive</t>
+  </si>
+  <si>
+    <t>HP:0001508</t>
   </si>
 </sst>
 </file>
@@ -729,11 +735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26D0AFFF-2DCB-C646-890F-4B68E6DA118F}">
-  <dimension ref="A1:AN9"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,7 +748,7 @@
     <col min="14" max="25" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,8 +869,11 @@
       <c r="AN1" t="s">
         <v>106</v>
       </c>
+      <c r="AO1" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -985,8 +994,11 @@
       <c r="AN2" t="s">
         <v>105</v>
       </c>
+      <c r="AO2" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1042,7 @@
         <v>26</v>
       </c>
       <c r="O3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P3" t="s">
         <v>12</v>
@@ -1096,7 +1108,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1188,7 +1200,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1339,7 +1351,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1416,7 +1428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
